--- a/biology/Botanique/Magnolia_tripetala/Magnolia_tripetala.xlsx
+++ b/biology/Botanique/Magnolia_tripetala/Magnolia_tripetala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia tripetala, le Magnolia parasol ou Magnolier parasol, est une espèce d'arbre de la famille des Magnoliaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre est originaire de l'Est de l'Amérique du Nord de la Floride aux États-Unis jusqu'au sud du Canada. On le retrouve de la côte Est jusque les États de l'Oklahoma, du Missouri et de l'Indiana à l'ouest. La région comprend ainsi la région montagneuse des Appalaches[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est originaire de l'Est de l'Amérique du Nord de la Floride aux États-Unis jusqu'au sud du Canada. On le retrouve de la côte Est jusque les États de l'Oklahoma, du Missouri et de l'Indiana à l'ouest. La région comprend ainsi la région montagneuse des Appalaches.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Magnolia parasol possède de grandes feuilles brillantes longues de 30 à 50 cm. Dans son environnement naturel, il peut atteindre les 15 mètres de haut. Les fleurs, d'un diamètre de 15-25 cm, possèdent six à neuf pétales de couleur blanc-crème et un long pistil rouge, qui se développent par la suite en des fruits rouges de 10 cm de long, contenant plusieurs graines de couleur rouge également.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Magnolia virginiana var. tripetala L.</t>
         </is>
